--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\usr\pro\2022_biclean\MTEvalPoC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD908134-AFAF-4586-89B3-4B7275A80A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A990B2F-0C6C-4E9B-8510-DE9AFB15BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{52D6FD14-6F51-4F1A-A4DC-179A69883456}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="23">
   <si>
     <t>./text/ra_source.txt</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>wmt22-comet-da</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Unbabel/wmt22-cometkiwi-da</t>
+  </si>
+  <si>
+    <t>wmt22-cometkiwi-da</t>
   </si>
 </sst>
 </file>
@@ -1866,6 +1875,281 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wmt22-cometkiwi-da</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$F$31:$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEEPL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GOOGLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$31:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.82287625604915804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84219848374578898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BAB-47A1-884C-E288AC3F0858}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="187117071"/>
+        <c:axId val="663860495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="187117071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663860495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663860495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187117071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2106,6 +2390,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4622,6 +4946,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5129,14 +5956,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5165,14 +5992,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5201,14 +6028,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5237,14 +6064,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5309,14 +6136,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5337,6 +6164,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05DDF9B-5AAA-6682-912E-4860D4A77C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5644,8 +6507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD330BFB-C417-49B1-A343-06FE9B49C000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:C70"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6237,6 +7100,167 @@
         <v>7.0734474247694995E-2</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>0.82777838732537801</v>
+      </c>
+      <c r="H29">
+        <v>6.2605079481791906E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>0.83104474938427098</v>
+      </c>
+      <c r="H30">
+        <v>6.5553536365496407E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <v>0.82287625604915804</v>
+      </c>
+      <c r="H31">
+        <v>0.10363517667708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0.84219848374578898</v>
+      </c>
+      <c r="H32">
+        <v>4.9063442168898901E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0.87526788708351799</v>
+      </c>
+      <c r="H36">
+        <v>0.82777838732537801</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>0.88590965777555597</v>
+      </c>
+      <c r="H37">
+        <v>0.83104474938427098</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>0.86640195712077595</v>
+      </c>
+      <c r="H38">
+        <v>0.82287625604915804</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>0.89597130197302499</v>
+      </c>
+      <c r="H39">
+        <v>0.84219848374578898</v>
+      </c>
+    </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>19</v>

--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\u\usr\pro\2022_biclean\MTEvalPoC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A990B2F-0C6C-4E9B-8510-DE9AFB15BD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1015618B-06B7-4153-81AB-A99C6F37A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="-120" windowWidth="27810" windowHeight="16440" xr2:uid="{52D6FD14-6F51-4F1A-A4DC-179A69883456}"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="26175" windowHeight="16200" xr2:uid="{52D6FD14-6F51-4F1A-A4DC-179A69883456}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1952,13 +1952,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$F$31:$F$32</c:f>
+              <c:f>Hoja1!$F$29:$F$32</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>GOLD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WATSON</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>DEEPL</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>GOOGLE</c:v>
                 </c:pt>
               </c:strCache>
@@ -1966,14 +1972,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$31:$G$32</c:f>
+              <c:f>Hoja1!$G$29:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.82777838732537801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83104474938427098</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.82287625604915804</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.84219848374578898</c:v>
                 </c:pt>
               </c:numCache>
@@ -1981,7 +1993,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9BAB-47A1-884C-E288AC3F0858}"/>
+              <c16:uniqueId val="{00000000-E97C-4CF6-BB1F-064C3B8C1F7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1995,11 +2007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="187117071"/>
-        <c:axId val="663860495"/>
+        <c:axId val="93877968"/>
+        <c:axId val="94343776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187117071"/>
+        <c:axId val="93877968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2054,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663860495"/>
+        <c:crossAx val="94343776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2050,7 +2062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663860495"/>
+        <c:axId val="94343776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2113,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187117071"/>
+        <c:crossAx val="93877968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6171,23 +6183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1557337</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05DDF9B-5AAA-6682-912E-4860D4A77C6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295EF7A6-DAB7-B987-EF96-56C7971ABF1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6507,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD330BFB-C417-49B1-A343-06FE9B49C000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
